--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-masking-0.1/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="61">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,12 +43,12 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>disappointed</t>
   </si>
   <si>
@@ -70,84 +70,84 @@
     <t>small</t>
   </si>
   <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
     <t>item</t>
   </si>
   <si>
+    <t>would</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>money</t>
   </si>
   <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>price</t>
+    <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>one</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
@@ -157,12 +157,12 @@
     <t>classic</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
@@ -172,21 +172,18 @@
     <t>loved</t>
   </si>
   <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>friends</t>
   </si>
   <si>
     <t>learn</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
     <t>enjoy</t>
   </si>
   <si>
@@ -194,9 +191,6 @@
   </si>
   <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>family</t>
   </si>
   <si>
     <t>game</t>
@@ -571,7 +565,7 @@
         <v>41</v>
       </c>
       <c r="J1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -653,13 +647,13 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +673,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8863636363636364</v>
+        <v>0.7605633802816901</v>
       </c>
       <c r="C4">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="D4">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +691,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -721,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -729,13 +723,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7464788732394366</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K5">
-        <v>0.8172043010752689</v>
+        <v>0.8387096774193549</v>
       </c>
       <c r="L5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="M5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +765,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +773,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7365591397849462</v>
+        <v>0.7096774193548387</v>
       </c>
       <c r="C6">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +791,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K6">
-        <v>0.796875</v>
+        <v>0.75</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -853,13 +847,13 @@
         <v>46</v>
       </c>
       <c r="K7">
-        <v>0.6792452830188679</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="L7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="M7">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +873,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6283783783783784</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D8">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K8">
-        <v>0.5624103299856528</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="L8">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="M8">
-        <v>392</v>
+        <v>39</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>305</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +923,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6262135922330098</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +941,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>48</v>
       </c>
       <c r="K9">
-        <v>0.5362318840579711</v>
+        <v>0.5595408895265424</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>390</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>307</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1003,13 +997,13 @@
         <v>49</v>
       </c>
       <c r="K10">
-        <v>0.4979253112033195</v>
+        <v>0.504149377593361</v>
       </c>
       <c r="L10">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="M10">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1021,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1023,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1041,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K11">
-        <v>0.4598360655737705</v>
+        <v>0.4614754098360656</v>
       </c>
       <c r="L11">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M11">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1065,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>659</v>
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1073,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5014492753623189</v>
+        <v>0.5043478260869565</v>
       </c>
       <c r="C12">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D12">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1091,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K12">
-        <v>0.3516819571865443</v>
+        <v>0.3608562691131498</v>
       </c>
       <c r="L12">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="M12">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1129,13 +1123,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3937007874015748</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="C13">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1147,19 +1141,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>77</v>
+        <v>49</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K13">
-        <v>0.3333333333333333</v>
+        <v>0.3253012048192771</v>
       </c>
       <c r="L13">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="M13">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>80</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1173,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.3933649289099526</v>
+        <v>0.4</v>
       </c>
       <c r="C14">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="D14">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,31 +1191,31 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K14">
-        <v>0.3090909090909091</v>
+        <v>0.3083333333333333</v>
       </c>
       <c r="L14">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="M14">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>114</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.375</v>
+        <v>0.3779527559055118</v>
       </c>
       <c r="C15">
         <v>48</v>
@@ -1247,19 +1241,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K15">
-        <v>0.2857142857142857</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="L15">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="M15">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1273,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3734939759036144</v>
+        <v>0.3515625</v>
       </c>
       <c r="C16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="D16">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K16">
-        <v>0.2265625</v>
+        <v>0.234375</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1323,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3473684210526316</v>
+        <v>0.3412322274881517</v>
       </c>
       <c r="C17">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="D17">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>62</v>
+        <v>139</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K17">
-        <v>0.2097902097902098</v>
+        <v>0.1774193548387097</v>
       </c>
       <c r="L17">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M17">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1371,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>113</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1373,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.2623762376237624</v>
+        <v>0.2673267326732673</v>
       </c>
       <c r="C18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,19 +1391,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>57</v>
       </c>
       <c r="K18">
-        <v>0.2096774193548387</v>
+        <v>0.1686746987951807</v>
       </c>
       <c r="L18">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M18">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1421,7 +1415,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>147</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1429,13 +1423,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2268041237113402</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C19">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D19">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1447,19 +1441,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>58</v>
       </c>
       <c r="K19">
-        <v>0.1847389558232932</v>
+        <v>0.1551270815074496</v>
       </c>
       <c r="L19">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="M19">
-        <v>46</v>
+        <v>177</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1471,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>203</v>
+        <v>964</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1479,13 +1473,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1884057971014493</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="C20">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1497,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>224</v>
+        <v>154</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>59</v>
       </c>
       <c r="K20">
-        <v>0.147239263803681</v>
+        <v>0.06948051948051948</v>
       </c>
       <c r="L20">
-        <v>168</v>
+        <v>107</v>
       </c>
       <c r="M20">
-        <v>168</v>
+        <v>108</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
-        <v>973</v>
+        <v>1433</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1529,13 +1523,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.185</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C21">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1547,31 +1541,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>163</v>
-      </c>
-      <c r="J21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="K21">
-        <v>0.08077994428969359</v>
-      </c>
-      <c r="L21">
-        <v>29</v>
-      </c>
-      <c r="M21">
-        <v>29</v>
-      </c>
-      <c r="N21">
-        <v>1</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>330</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1579,49 +1549,25 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1676557863501484</v>
+        <v>0.1693907875185736</v>
       </c>
       <c r="C22">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D22">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>561</v>
-      </c>
-      <c r="J22" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K22">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="L22">
-        <v>110</v>
-      </c>
-      <c r="M22">
-        <v>111</v>
-      </c>
-      <c r="N22">
-        <v>0.99</v>
-      </c>
-      <c r="O22">
-        <v>0.01000000000000001</v>
-      </c>
-      <c r="P22" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q22">
-        <v>1430</v>
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1629,13 +1575,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1635514018691589</v>
+        <v>0.165</v>
       </c>
       <c r="C23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1647,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1655,13 +1601,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1424050632911392</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C24">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D24">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1673,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>271</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1681,25 +1627,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1343612334801762</v>
+        <v>0.1613832853025937</v>
       </c>
       <c r="C25">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>393</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1707,13 +1653,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1293103448275862</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="C26">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D26">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1725,7 +1671,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>303</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1733,25 +1679,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1240601503759398</v>
+        <v>0.1392405063291139</v>
       </c>
       <c r="C27">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="E27">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>233</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1759,13 +1705,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1234177215189873</v>
+        <v>0.1299559471365639</v>
       </c>
       <c r="C28">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D28">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1777,7 +1723,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>277</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1785,25 +1731,25 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1174089068825911</v>
+        <v>0.125</v>
       </c>
       <c r="C29">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D29">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E29">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1811,13 +1757,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.0847457627118644</v>
+        <v>0.1165413533834586</v>
       </c>
       <c r="C30">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E30">
         <v>0.03</v>
@@ -1829,7 +1775,7 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>324</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1837,25 +1783,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.07967032967032966</v>
+        <v>0.09863013698630137</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E31">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1863,25 +1809,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.078125</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D32">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E32">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>413</v>
+        <v>323</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1889,25 +1835,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.06589785831960461</v>
+        <v>0.0801781737193764</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D33">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="E33">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>567</v>
+        <v>413</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1915,25 +1861,25 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05206738131699847</v>
+        <v>0.07248764415156507</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="D34">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>0.06</v>
+        <v>0.02</v>
       </c>
       <c r="F34">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>619</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1941,13 +1887,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.04182509505703422</v>
+        <v>0.05203045685279188</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E35">
         <v>0.13</v>
@@ -1959,7 +1905,7 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>756</v>
+        <v>747</v>
       </c>
     </row>
   </sheetData>
